--- a/mb_clean_data/wednesday_cleaned.xlsx
+++ b/mb_clean_data/wednesday_cleaned.xlsx
@@ -1988,7 +1988,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>voucher</t>
+          <t>Voucher</t>
         </is>
       </c>
     </row>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>credit</t>
+          <t>Credit</t>
         </is>
       </c>
     </row>
@@ -2062,7 +2062,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>debit</t>
+          <t>Debit</t>
         </is>
       </c>
     </row>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>voucher</t>
+          <t>Voucher</t>
         </is>
       </c>
     </row>
@@ -2173,7 +2173,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>debit</t>
+          <t>Debit</t>
         </is>
       </c>
     </row>
